--- a/municipal/ENG/Hotels/Guests/Adjara A.R/C. Batumi Municipality.xlsx
+++ b/municipal/ENG/Hotels/Guests/Adjara A.R/C. Batumi Municipality.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4.4 Guests\Adjara A.R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სასტუმროები ქარ. EN\4.4 Guests\Adjara A.R\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>From Georgia</t>
-  </si>
-  <si>
-    <t>(Men)</t>
   </si>
   <si>
     <t>Business trip</t>
@@ -117,6 +114,9 @@
       </rPr>
       <t xml:space="preserve"> by country and purpose of arrival in C. Batumi  Municipality</t>
     </r>
+  </si>
+  <si>
+    <t>(person)</t>
   </si>
 </sst>
 </file>
@@ -334,6 +334,14 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,14 +371,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -657,7 +657,7 @@
   <dimension ref="A1:BI188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -669,14 +669,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="A1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
@@ -686,13 +686,13 @@
     </row>
     <row r="2" spans="1:61" s="7" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
+        <v>16</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
@@ -750,18 +750,18 @@
       <c r="BI2" s="14"/>
     </row>
     <row r="3" spans="1:61" s="7" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
@@ -819,19 +819,19 @@
       <c r="BI3" s="14"/>
     </row>
     <row r="4" spans="1:61" s="16" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -890,14 +890,14 @@
       <c r="BI4" s="3"/>
     </row>
     <row r="5" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="34">
+      <c r="A5" s="38">
         <v>2010</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -956,7 +956,7 @@
     </row>
     <row r="6" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="9">
         <v>116843</v>
@@ -968,7 +968,7 @@
         <v>19235</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="9">
         <v>2081</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="7" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1108,7 +1108,7 @@
         <v>10947</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="10">
         <v>1184</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="9" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="10">
         <v>47404</v>
@@ -1183,7 +1183,7 @@
         <v>8288</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="10">
         <v>897</v>
@@ -1246,13 +1246,13 @@
     </row>
     <row r="10" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="33"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="11" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="10">
         <v>8209</v>
@@ -1323,7 +1323,7 @@
         <v>1371</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="10">
         <v>78</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="12" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="10">
         <v>18152</v>
@@ -1398,7 +1398,7 @@
         <v>1671</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="10">
         <v>250</v>
@@ -1461,21 +1461,21 @@
     </row>
     <row r="13" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="44">
+        <v>9</v>
+      </c>
+      <c r="B13" s="34">
         <v>21043</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="34">
         <v>15228</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="34">
         <v>5246</v>
       </c>
-      <c r="E13" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="44">
+      <c r="E13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="34">
         <v>569</v>
       </c>
       <c r="G13" s="25"/>
@@ -1535,14 +1535,14 @@
       <c r="BI13" s="25"/>
     </row>
     <row r="14" spans="1:61" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32">
+      <c r="A14" s="36">
         <v>2011</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="15" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="9">
         <v>217276</v>
@@ -1613,7 +1613,7 @@
         <v>21121</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="9">
         <v>9491</v>
@@ -1676,13 +1676,13 @@
     </row>
     <row r="16" spans="1:61" s="18" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1753,7 +1753,7 @@
         <v>13502</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="10">
         <v>5446</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="18" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="10">
         <v>101705</v>
@@ -1828,7 +1828,7 @@
         <v>7619</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="10">
         <v>4045</v>
@@ -1891,13 +1891,13 @@
     </row>
     <row r="19" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
@@ -1956,7 +1956,7 @@
     </row>
     <row r="20" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="10">
         <v>10198</v>
@@ -1968,7 +1968,7 @@
         <v>1081</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" s="10">
         <v>51</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="21" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="10">
         <v>26211</v>
@@ -2043,7 +2043,7 @@
         <v>738</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21" s="10">
         <v>98</v>
@@ -2106,21 +2106,21 @@
     </row>
     <row r="22" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="44">
+        <v>9</v>
+      </c>
+      <c r="B22" s="34">
         <v>65296</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="34">
         <v>55600</v>
       </c>
-      <c r="D22" s="44">
+      <c r="D22" s="34">
         <v>5800</v>
       </c>
-      <c r="E22" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="44">
+      <c r="E22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="34">
         <v>3896</v>
       </c>
       <c r="G22" s="25"/>
@@ -2180,14 +2180,14 @@
       <c r="BI22" s="25"/>
     </row>
     <row r="23" spans="1:61" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="32">
+      <c r="A23" s="36">
         <v>2012</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="24" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="9">
         <v>338134</v>
@@ -2258,7 +2258,7 @@
         <v>56816</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F24" s="9">
         <v>42961</v>
@@ -2266,13 +2266,13 @@
     </row>
     <row r="25" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
@@ -2288,7 +2288,7 @@
         <v>33346</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F26" s="10">
         <v>28960</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="27" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="10">
         <v>181706</v>
@@ -2308,7 +2308,7 @@
         <v>23470</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27" s="10">
         <v>14001</v>
@@ -2316,17 +2316,17 @@
     </row>
     <row r="28" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="10">
         <v>18716</v>
@@ -2338,7 +2338,7 @@
         <v>2403</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" s="10">
         <v>702</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="30" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="10">
         <v>38312</v>
@@ -2358,7 +2358,7 @@
         <v>2113</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" s="10">
         <v>1636</v>
@@ -2366,37 +2366,37 @@
     </row>
     <row r="31" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="44">
+        <v>9</v>
+      </c>
+      <c r="B31" s="34">
         <v>124678</v>
       </c>
-      <c r="C31" s="44">
+      <c r="C31" s="34">
         <v>94061</v>
       </c>
-      <c r="D31" s="44">
+      <c r="D31" s="34">
         <v>18954</v>
       </c>
-      <c r="E31" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="44">
+      <c r="E31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="34">
         <v>11663</v>
       </c>
     </row>
     <row r="32" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32">
+      <c r="A32" s="36">
         <v>2013</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" s="9">
         <v>296244</v>
@@ -2416,13 +2416,13 @@
     </row>
     <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
@@ -2446,7 +2446,7 @@
     </row>
     <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="10">
         <v>197471</v>
@@ -2466,17 +2466,17 @@
     </row>
     <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="10">
         <v>26732</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="10">
         <v>50510</v>
@@ -2516,37 +2516,37 @@
     </row>
     <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="44">
+        <v>9</v>
+      </c>
+      <c r="B40" s="34">
         <v>120229</v>
       </c>
-      <c r="C40" s="44">
+      <c r="C40" s="34">
         <v>100042</v>
       </c>
-      <c r="D40" s="44">
+      <c r="D40" s="34">
         <v>15539</v>
       </c>
-      <c r="E40" s="45">
+      <c r="E40" s="35">
         <v>28</v>
       </c>
-      <c r="F40" s="44">
+      <c r="F40" s="34">
         <v>4620</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="32">
+      <c r="A41" s="36">
         <v>2014</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
     </row>
     <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" s="9">
         <v>268462</v>
@@ -2566,13 +2566,13 @@
     </row>
     <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
@@ -2596,7 +2596,7 @@
     </row>
     <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45" s="10">
         <v>161945</v>
@@ -2616,17 +2616,17 @@
     </row>
     <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
     </row>
     <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47" s="10">
         <v>23241</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="10">
         <v>48040</v>
@@ -2666,37 +2666,37 @@
     </row>
     <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="44">
+        <v>9</v>
+      </c>
+      <c r="B49" s="34">
         <v>90664</v>
       </c>
-      <c r="C49" s="44">
+      <c r="C49" s="34">
         <v>74742</v>
       </c>
-      <c r="D49" s="44">
+      <c r="D49" s="34">
         <v>11864</v>
       </c>
-      <c r="E49" s="45">
+      <c r="E49" s="35">
         <v>38</v>
       </c>
-      <c r="F49" s="44">
+      <c r="F49" s="34">
         <v>4020</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="32">
+      <c r="A50" s="36">
         <v>2015</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="9">
         <v>363172</v>
@@ -2708,7 +2708,7 @@
         <v>26897</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F51" s="9">
         <v>3556</v>
@@ -2716,13 +2716,13 @@
     </row>
     <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="32"/>
     </row>
     <row r="53" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="24" t="s">
@@ -2738,7 +2738,7 @@
         <v>11376</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F53" s="10">
         <v>1107</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="10">
         <v>216066</v>
@@ -2758,7 +2758,7 @@
         <v>15521</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F54" s="10">
         <v>2449</v>
@@ -2766,17 +2766,17 @@
     </row>
     <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="33"/>
     </row>
     <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="10">
         <v>19724</v>
@@ -2788,7 +2788,7 @@
         <v>947</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F56" s="10">
         <v>243</v>
@@ -2796,7 +2796,7 @@
     </row>
     <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" s="10">
         <v>73320</v>
@@ -2808,7 +2808,7 @@
         <v>3799</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F57" s="10">
         <v>679</v>
@@ -2816,37 +2816,37 @@
     </row>
     <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="44">
+        <v>9</v>
+      </c>
+      <c r="B58" s="34">
         <v>123022</v>
       </c>
-      <c r="C58" s="44">
+      <c r="C58" s="34">
         <v>110720</v>
       </c>
-      <c r="D58" s="44">
+      <c r="D58" s="34">
         <v>10775</v>
       </c>
-      <c r="E58" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="44">
+      <c r="E58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="34">
         <v>1527</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="32">
+      <c r="A59" s="36">
         <v>2016</v>
       </c>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="32"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
     </row>
     <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60" s="9">
         <v>521959</v>
@@ -2858,7 +2858,7 @@
         <v>51330</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F60" s="9">
         <v>2756</v>
@@ -2866,13 +2866,13 @@
     </row>
     <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="42"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="32"/>
     </row>
     <row r="62" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="24" t="s">
@@ -2888,7 +2888,7 @@
         <v>27331</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F62" s="10">
         <v>2275</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63" s="10">
         <v>351169</v>
@@ -2908,7 +2908,7 @@
         <v>23999</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63" s="10">
         <v>481</v>
@@ -2916,17 +2916,17 @@
     </row>
     <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="33"/>
     </row>
     <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65" s="10">
         <v>20372</v>
@@ -2938,7 +2938,7 @@
         <v>1922</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F65" s="10">
         <v>41</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" s="10">
         <v>104451</v>
@@ -2958,7 +2958,7 @@
         <v>7707</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F66" s="10">
         <v>132</v>
@@ -2966,37 +2966,37 @@
     </row>
     <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="44">
+        <v>9</v>
+      </c>
+      <c r="B67" s="34">
         <v>226346</v>
       </c>
-      <c r="C67" s="44">
+      <c r="C67" s="34">
         <v>211668</v>
       </c>
-      <c r="D67" s="44">
+      <c r="D67" s="34">
         <v>14370</v>
       </c>
-      <c r="E67" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="44">
+      <c r="E67" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="34">
         <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="32">
+      <c r="A68" s="36">
         <v>2017</v>
       </c>
-      <c r="B68" s="32"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
     </row>
     <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" s="9">
         <v>672118</v>
@@ -3016,13 +3016,13 @@
     </row>
     <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
     </row>
     <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="24" t="s">
@@ -3046,7 +3046,7 @@
     </row>
     <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B72" s="10">
         <v>436957</v>
@@ -3066,17 +3066,17 @@
     </row>
     <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B73" s="33"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
     </row>
     <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" s="10">
         <v>22876</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="10">
         <v>115390</v>
@@ -3116,37 +3116,37 @@
     </row>
     <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="44">
+        <v>9</v>
+      </c>
+      <c r="B76" s="34">
         <v>298691</v>
       </c>
-      <c r="C76" s="44">
+      <c r="C76" s="34">
         <v>282087</v>
       </c>
-      <c r="D76" s="44">
+      <c r="D76" s="34">
         <v>15479</v>
       </c>
-      <c r="E76" s="45">
+      <c r="E76" s="35">
         <v>383</v>
       </c>
-      <c r="F76" s="44">
+      <c r="F76" s="34">
         <v>742</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="32">
+      <c r="A77" s="36">
         <v>2018</v>
       </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
     </row>
     <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" s="9">
         <v>711325</v>
@@ -3166,13 +3166,13 @@
     </row>
     <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
     </row>
     <row r="80" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="24" t="s">
@@ -3196,7 +3196,7 @@
     </row>
     <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" s="10">
         <v>488769</v>
@@ -3216,17 +3216,17 @@
     </row>
     <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B82" s="33"/>
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
     </row>
     <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" s="10">
         <v>31965</v>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B84" s="10">
         <v>136574</v>
@@ -3266,37 +3266,37 @@
     </row>
     <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="44">
+        <v>9</v>
+      </c>
+      <c r="B85" s="34">
         <v>320230</v>
       </c>
-      <c r="C85" s="44">
+      <c r="C85" s="34">
         <v>250994</v>
       </c>
-      <c r="D85" s="44">
+      <c r="D85" s="34">
         <v>39166</v>
       </c>
-      <c r="E85" s="45">
+      <c r="E85" s="35">
         <v>19</v>
       </c>
-      <c r="F85" s="44">
+      <c r="F85" s="34">
         <v>30051</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="32">
+      <c r="A86" s="36">
         <v>2019</v>
       </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36"/>
     </row>
     <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" s="9">
         <v>892695</v>
@@ -3316,13 +3316,13 @@
     </row>
     <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B88" s="42"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
     </row>
     <row r="89" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
@@ -3346,7 +3346,7 @@
     </row>
     <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B90" s="10">
         <v>649518</v>
@@ -3366,17 +3366,17 @@
     </row>
     <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B91" s="33"/>
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="33"/>
+      <c r="F91" s="33"/>
     </row>
     <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="10">
         <v>41092</v>
@@ -3388,7 +3388,7 @@
         <v>2669</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F92" s="10">
         <v>14</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B93" s="10">
         <v>133263</v>
@@ -3408,7 +3408,7 @@
         <v>11039</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F93" s="10">
         <v>10176</v>
@@ -3416,37 +3416,37 @@
     </row>
     <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="44">
+        <v>9</v>
+      </c>
+      <c r="B94" s="34">
         <v>475163</v>
       </c>
-      <c r="C94" s="44">
+      <c r="C94" s="34">
         <v>442354</v>
       </c>
-      <c r="D94" s="44">
+      <c r="D94" s="34">
         <v>28481</v>
       </c>
-      <c r="E94" s="45">
+      <c r="E94" s="35">
         <v>1</v>
       </c>
-      <c r="F94" s="44">
+      <c r="F94" s="34">
         <v>4327</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="32">
+      <c r="A95" s="36">
         <v>2020</v>
       </c>
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
     </row>
     <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" s="9">
         <v>273537</v>
@@ -3466,13 +3466,13 @@
     </row>
     <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" s="42"/>
-      <c r="C97" s="42"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="42"/>
-      <c r="F97" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
     </row>
     <row r="98" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="24" t="s">
@@ -3496,7 +3496,7 @@
     </row>
     <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B99" s="10">
         <v>55848</v>
@@ -3516,17 +3516,17 @@
     </row>
     <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B100" s="33"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
     </row>
     <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B101" s="10">
         <v>3377</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B102" s="10">
         <v>16777</v>
@@ -3566,37 +3566,37 @@
     </row>
     <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="34">
+        <v>35694</v>
+      </c>
+      <c r="C103" s="34">
+        <v>32541</v>
+      </c>
+      <c r="D103" s="34">
+        <v>1605</v>
+      </c>
+      <c r="E103" s="35">
         <v>10</v>
       </c>
-      <c r="B103" s="44">
-        <v>35694</v>
-      </c>
-      <c r="C103" s="44">
-        <v>32541</v>
-      </c>
-      <c r="D103" s="44">
-        <v>1605</v>
-      </c>
-      <c r="E103" s="45">
-        <v>10</v>
-      </c>
-      <c r="F103" s="44">
+      <c r="F103" s="34">
         <v>1511</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="32">
+      <c r="A104" s="36">
         <v>2021</v>
       </c>
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
     </row>
     <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" s="9">
         <v>514794</v>
@@ -3616,13 +3616,13 @@
     </row>
     <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42"/>
-      <c r="F106" s="42"/>
+        <v>12</v>
+      </c>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
     </row>
     <row r="107" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="24" t="s">
@@ -3646,7 +3646,7 @@
     </row>
     <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B108" s="10">
         <v>279533</v>
@@ -3658,7 +3658,7 @@
         <v>1465</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F108" s="10">
         <v>486</v>
@@ -3666,17 +3666,17 @@
     </row>
     <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="43"/>
+        <v>12</v>
+      </c>
+      <c r="B109" s="33"/>
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="33"/>
     </row>
     <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B110" s="10">
         <v>7222</v>
@@ -3688,7 +3688,7 @@
         <v>162</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F110" s="10">
         <v>104</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B111" s="10">
         <v>58545</v>
@@ -3708,7 +3708,7 @@
         <v>65</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F111" s="10">
         <v>10</v>
@@ -3716,27 +3716,27 @@
     </row>
     <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B112" s="44">
+        <v>9</v>
+      </c>
+      <c r="B112" s="34">
         <v>213766</v>
       </c>
-      <c r="C112" s="44">
+      <c r="C112" s="34">
         <v>212156</v>
       </c>
-      <c r="D112" s="44">
+      <c r="D112" s="34">
         <v>1238</v>
       </c>
-      <c r="E112" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="44">
+      <c r="E112" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112" s="34">
         <v>372</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -3785,12 +3785,12 @@
       <c r="F118" s="10"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="33"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="37"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="37"/>
+      <c r="E119" s="37"/>
+      <c r="F119" s="37"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="17"/>
@@ -3841,12 +3841,12 @@
       <c r="F125" s="10"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="33"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="37"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
+      <c r="F126" s="37"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="17"/>
@@ -3897,12 +3897,12 @@
       <c r="F132" s="10"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="33"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
+      <c r="A133" s="37"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="37"/>
+      <c r="D133" s="37"/>
+      <c r="E133" s="37"/>
+      <c r="F133" s="37"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
@@ -3953,12 +3953,12 @@
       <c r="F139" s="10"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="33"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="33"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="37"/>
+      <c r="F140" s="37"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
@@ -4009,12 +4009,12 @@
       <c r="F146" s="10"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="33"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="33"/>
+      <c r="A147" s="37"/>
+      <c r="B147" s="37"/>
+      <c r="C147" s="37"/>
+      <c r="D147" s="37"/>
+      <c r="E147" s="37"/>
+      <c r="F147" s="37"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="17"/>
@@ -4065,12 +4065,12 @@
       <c r="F153" s="10"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="33"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="33"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="33"/>
+      <c r="A154" s="37"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="37"/>
+      <c r="E154" s="37"/>
+      <c r="F154" s="37"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="17"/>
@@ -4121,12 +4121,12 @@
       <c r="F160" s="10"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="33"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="33"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="33"/>
+      <c r="A161" s="37"/>
+      <c r="B161" s="37"/>
+      <c r="C161" s="37"/>
+      <c r="D161" s="37"/>
+      <c r="E161" s="37"/>
+      <c r="F161" s="37"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="17"/>
@@ -4177,12 +4177,12 @@
       <c r="F167" s="10"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="33"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="33"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
+      <c r="A168" s="37"/>
+      <c r="B168" s="37"/>
+      <c r="C168" s="37"/>
+      <c r="D168" s="37"/>
+      <c r="E168" s="37"/>
+      <c r="F168" s="37"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="17"/>
@@ -4233,12 +4233,12 @@
       <c r="F174" s="10"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A175" s="33"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="33"/>
+      <c r="A175" s="37"/>
+      <c r="B175" s="37"/>
+      <c r="C175" s="37"/>
+      <c r="D175" s="37"/>
+      <c r="E175" s="37"/>
+      <c r="F175" s="37"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="17"/>
@@ -4289,12 +4289,12 @@
       <c r="F181" s="10"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="33"/>
-      <c r="B182" s="33"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="33"/>
+      <c r="A182" s="37"/>
+      <c r="B182" s="37"/>
+      <c r="C182" s="37"/>
+      <c r="D182" s="37"/>
+      <c r="E182" s="37"/>
+      <c r="F182" s="37"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="17"/>
